--- a/Input/Adamjee_Mednet/benefits.xlsx
+++ b/Input/Adamjee_Mednet/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Routine Maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental Filter</t>
+    <t xml:space="preserve">Dental filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">$copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annualLimit</t>
   </si>
   <si>
     <t xml:space="preserve">Family Care Product</t>
@@ -219,25 +222,22 @@
 * No elective treatment reimbursement for Silk Road Network within UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to declaration with 6 months wait</t>
   </si>
   <si>
     <t xml:space="preserve">Private Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with $ co-pay. Consultations covered with 20% co-pay with AED $ max</t>
+    <t xml:space="preserve">Consultations- AED 25 or AED 50 as selected Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED $</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ co-pay</t>
@@ -247,20 +247,26 @@
 * Subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full with 10% co-pay
-Normal Delivery and C-Section- Covered up to AED 10,000</t>
+    <t xml:space="preserve">Covered in full with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NILco-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full with same deductible as selected on consultation 
+Delivery
+Inside AUH- Covered in full with AED 500 deductible
+Outside AUH- OP and IP covered up to AED 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical Emergency covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 for the first 30 days</t>
+    <t xml:space="preserve">Inside AUH- Covered in full 
+Outside AUH- Covered up to AED 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full for the first 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
@@ -293,8 +299,8 @@
     <t xml:space="preserve">Worldwide</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation- 20% up to a max of AED 50 or 20% up to a max of AED 75
-OP- 0% or 10% or 20%
+    <t xml:space="preserve">Consultation- AED 50 or AED 25
+OP- 0% 
 Pharmacy- 0% or 10% or 20% or 30%</t>
   </si>
   <si>
@@ -304,91 +310,46 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-01</t>
+    <t xml:space="preserve">UAE - Abu Dhabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">adamjee_mednet</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama Nil co-pay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/Nil/Nil/50</t>
-    </r>
+    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/NIL/25</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20% up to a max of AED 50 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama Nil co-pay/Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 10% co-pay/Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 20% co-pay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 10% co-pay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/10%/10%/50</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 75 - Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama Nil co-pay/Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 10% co-pay/Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Phama 20% co-pay/20%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama Nil co-pay/Nil/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 10% co-pay/10%/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 75 max, Diagnostics, Physio, and Phama 20% co-pay/20%/20%/75</t>
+    <t xml:space="preserve">AED 50 - Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/10%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 75 - Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/20%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/30%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/10%/10%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/20%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay/30%/50</t>
   </si>
 </sst>
 </file>
@@ -399,7 +360,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -426,6 +387,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,8 +436,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,55 +457,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM1" activeCellId="0" sqref="BM:BM"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="67.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="61" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="70.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="64" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="106.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="16.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="96.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="95.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="36.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,233 +526,235 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="BM1" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="254.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="1" t="s">
         <v>76</v>
       </c>
@@ -788,17 +764,17 @@
       <c r="AA2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="AC2" s="2"/>
       <c r="AD2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="1" t="s">
         <v>82</v>
       </c>
@@ -809,35 +785,35 @@
         <v>84</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL2" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="AR2" s="2"/>
       <c r="AS2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AW2" s="2"/>
       <c r="AX2" s="1" t="s">
         <v>88</v>
       </c>
@@ -848,65 +824,90 @@
         <v>90</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BG2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BH2" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ2" s="0" t="s">
+      <c r="BI2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BJ2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK2" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="BL2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="5" t="n">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK3" s="1" t="s">
+    <row r="3" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI3" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="BL3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM3" s="5" t="n">
+        <v>750000</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH4" s="3" t="s">
-        <v>99</v>
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM4" s="5" t="n">
+        <v>500000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH5" s="2" t="s">
-        <v>100</v>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM5" s="5" t="n">
+        <v>250000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH6" s="2" t="s">
-        <v>101</v>
+      <c r="BI6" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH7" s="3" t="s">
-        <v>102</v>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI7" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI9" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Adamjee_Mednet/benefits.xlsx
+++ b/Input/Adamjee_Mednet/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Routine Maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental filter</t>
+    <t xml:space="preserve">Dental Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">$copay</t>
   </si>
   <si>
-    <t xml:space="preserve">annualLimit</t>
+    <t xml:space="preserve">addons</t>
   </si>
   <si>
     <t xml:space="preserve">Family Care Product</t>
@@ -222,22 +222,25 @@
 * No elective treatment reimbursement for Silk Road Network within UAE</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered up to AED 150,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered in full</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full subject to declaration with 6 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available</t>
+    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
   </si>
   <si>
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations- AED 25 or AED 50 as selected Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED $</t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with $ co-pay. Consultations covered with 20% co-pay with AED $ max</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ co-pay</t>
@@ -247,26 +250,20 @@
 * Subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full subject to pre-authorization with NILco-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full with same deductible as selected on consultation 
-Delivery
-Inside AUH- Covered in full with AED 500 deductible
-Outside AUH- OP and IP covered up to AED 10,000</t>
+    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full with 10% co-pay
+Normal Delivery and C-Section- Covered up to AED 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
   </si>
   <si>
-    <t xml:space="preserve">Inside AUH- Covered in full 
-Outside AUH- Covered up to AED 10,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full for the first 30 days</t>
+    <t xml:space="preserve">Medical Emergency covered up to AED 150,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 150,000 for the first 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
@@ -299,8 +296,8 @@
     <t xml:space="preserve">Worldwide</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation- AED 50 or AED 25
-OP- 0% 
+    <t xml:space="preserve">Consultation- 20% up to a max of AED 50 or 20% up to a max of AED 75
+OP- 0% or 10% or 20%
 Pharmacy- 0% or 10% or 20% or 30%</t>
   </si>
   <si>
@@ -310,7 +307,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE - Abu Dhabi</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">2024-04-01</t>
@@ -319,37 +316,99 @@
     <t xml:space="preserve">adamjee_mednet</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/NIL/25</t>
+    <t xml:space="preserve">Consultations 20% up to AED 50, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/50</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 50 - Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/10%/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 75 - Consultations AED 25, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 25, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 20% co-pay/20%/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 25, OP NIL co-pay, Pharma 30% co-pay/30%/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 10% co-pay/10%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 20% co-pay/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations AED 50, OP NIL co-pay, Pharma 30% co-pay/30%/50</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20% up to a max of AED 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Consultations 20% up to AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations 20% up to AED 50, OP 10% co-pay, Pharma 10% co-pay/Consultations 20% up to AED 50, OP 20% co-pay, Pharma 20% co-pay/Consultations 20% up to AED 50, OP 20% co-pay, Pharma 30% co-pay/Consultations 20% up to AED 75, OP NIL co-pay, Pharma NIL co-pay/Consultations 20% up to AED 75, OP 10% co-pay, Pharma 10% co-pay/Consultations 20% up to AED 75, OP 20% co-pay, Pharma 20% co-pay/Consultations 20% up to AED 75, OP 20% co-pay, Pharma 30% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 50, OP 10% co-pay, Pharma 10% co-pay/10%/10%/50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20% up to a max of AED 75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Consultations 20% up to AED 50, OP NIL co-pay, Pharma NIL co-pay/Consultations 20% up to AED 50, OP 10% co-pay, Pharma 10% co-pay/Consultations 20% up to AED 50, OP 20% co-pay, Pharma 20% co-pay/Consultations 20% up to AED 50, OP 20% co-pay, Pharma 30% co-pay/Consultations 20% up to AED 75, OP NIL co-pay, Pharma NIL co-pay/Consultations 20% up to AED 75, OP 10% co-pay, Pharma 10% co-pay/Consultations 20% up to AED 75, OP 20% co-pay, Pharma 20% co-pay/Consultations 20% up to AED 75, OP 20% co-pay, Pharma 30% co-pay</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 50, OP 20% co-pay, Pharma 20% co-pay/20%/20%50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 50, OP 20% co-pay, Pharma 30% co-pay/30%/30%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 75, OP NIL co-pay, Pharma NIL co-pay/NIL/NIL/75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% up to AED 75, OP 10% co-pay, Pharma 10% co-pay/10%/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10%/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">75</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 75, OP 20% co-pay, Pharma 20% co-pay/20%/20%/75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations 20% up to AED 75, OP 20% co-pay, Pharma 30% co-pay/30%30%/75</t>
   </si>
 </sst>
 </file>
@@ -389,9 +448,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,28 +502,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -482,26 +543,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM1" activeCellId="0" sqref="BM:BM"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL3" activeCellId="0" sqref="BL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="106.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="27.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="96.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="95.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="36.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="96.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="83.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,178 +581,177 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AR1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AW1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BE1" s="0" t="s">
+        <v>53</v>
+      </c>
       <c r="BF1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="254.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="203.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -713,115 +767,117 @@
       <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="AD2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AG2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
+      <c r="AN2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AO2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
+      <c r="AR2" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AS2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
+      <c r="AW2" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AX2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>91</v>
@@ -830,83 +886,71 @@
         <v>91</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="0" t="s">
+      <c r="BG2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BH2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BI2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BK2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BK2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="BM2" s="5" t="n">
-        <v>1000000</v>
+      <c r="BL2" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI3" s="2" t="s">
+    <row r="3" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BK3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="BM3" s="5" t="n">
-        <v>750000</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BM4" s="5" t="n">
-        <v>500000</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI5" s="1" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH5" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="BM5" s="5" t="n">
-        <v>250000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI6" s="6" t="s">
+      <c r="BH6" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI7" s="6" t="s">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH7" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH8" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BH9" s="3" t="s">
         <v>105</v>
       </c>
     </row>
